--- a/biology/Zoologie/Hippasa_deserticola/Hippasa_deserticola.xlsx
+++ b/biology/Zoologie/Hippasa_deserticola/Hippasa_deserticola.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hippasa deserticola est une espèce d'araignées aranéomorphes de la famille des Lycosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hippasa deserticola est une espèce d'araignées aranéomorphes de la famille des Lycosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Turkménistan, en Ouzbékistan, au Tadjikistan, en Afghanistan, au Pakistan, en Inde, au Bangladesh, en Iran, en Irak, en Arabie saoudite et en Égypte[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Turkménistan, en Ouzbékistan, au Tadjikistan, en Afghanistan, au Pakistan, en Inde, au Bangladesh, en Iran, en Irak, en Arabie saoudite et en Égypte.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle syntype mesure 7,5 mm et la femelle syntype 9,5 mm[2].
-Le mâle décrit par Sankaran et Caleb en 2023 mesure 8,26 mm et la femelle 10,70 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle syntype mesure 7,5 mm et la femelle syntype 9,5 mm.
+Le mâle décrit par Sankaran et Caleb en 2023 mesure 8,26 mm et la femelle 10,70 mm.
 </t>
         </is>
       </c>
@@ -574,11 +590,13 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite par Simon en 1889. Elle est placée en synonymie avec Hippasa partita par Simon en 1897[4]. Elle est relevée de synonymie par Marusik et Nadolny en 2021[5].
-Trochosa loeffleri[6] et Hippasa afghana[7] ont été placées en synonymie par Marusik et Nadolny en 2021[5].
-Hippasa pisaurina[8], Hippasa madhuae[9], Hippasa charamaensis[10] et Hippasa sinai[11] ont été placées en synonymie par Sankaran et Caleb en 2023[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite par Simon en 1889. Elle est placée en synonymie avec Hippasa partita par Simon en 1897. Elle est relevée de synonymie par Marusik et Nadolny en 2021.
+Trochosa loeffleri et Hippasa afghana ont été placées en synonymie par Marusik et Nadolny en 2021.
+Hippasa pisaurina, Hippasa madhuae, Hippasa charamaensis et Hippasa sinai ont été placées en synonymie par Sankaran et Caleb en 2023.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, un désert.
 </t>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1889 : « Arachnidae transcaspicae ab ill. Dr. G. Radde, Dr. A. Walter et A. Conchin inventae (annis 1886-1887). » Verhandlungen der kaiserlich-königlichen zoologisch-botanischen Gesellschaft in Wien, vol. 39, p. 373-386 (texte intégral).</t>
         </is>
